--- a/hypercube traversal order.xlsx
+++ b/hypercube traversal order.xlsx
@@ -379,7 +379,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:E51"/>
+      <selection activeCell="D1" sqref="D1:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,7 +544,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>16</v>
